--- a/data/FDD接口测试用例.xlsx
+++ b/data/FDD接口测试用例.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
   <si>
     <t>环境</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>{"username":"13217176556","password":"Wawa520."}</t>
+  </si>
+  <si>
+    <t>{ "code": "40353","msg": "User not exists or password incorrect"}</t>
   </si>
   <si>
     <t>Home</t>
@@ -687,9 +690,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -731,7 +734,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,25 +756,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,8 +771,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -790,25 +801,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,7 +833,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,23 +855,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,7 +870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,7 +891,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,19 +945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,31 +963,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,73 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,13 +1053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,11 +1115,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,25 +1174,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1179,172 +1203,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1697,8 +1709,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -1817,7 +1829,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="XFD3" s="10"/>
+      <c r="XFD3" s="11"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:16384">
       <c r="A4" s="6" t="s">
@@ -1848,7 +1860,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="XFD4" s="10"/>
+      <c r="XFD4" s="11"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:16384">
       <c r="A5" s="6" t="s">
@@ -1881,7 +1893,7 @@
         <v>28</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="XFD5" s="10"/>
+      <c r="XFD5" s="11"/>
     </row>
     <row r="6" ht="37" customHeight="1" spans="1:16384">
       <c r="A6" s="6" t="s">
@@ -1909,40 +1921,40 @@
         <v>29</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="XFD6" s="10"/>
+      <c r="XFD6" s="11"/>
     </row>
     <row r="7" ht="14" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7"/>
     </row>
@@ -1951,16 +1963,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>26</v>
@@ -1969,14 +1981,14 @@
         <v>17</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7"/>
     </row>
@@ -1985,30 +1997,30 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" s="7"/>
     </row>
@@ -2017,30 +2029,30 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7"/>
     </row>
@@ -2049,30 +2061,30 @@
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7"/>
     </row>
@@ -2081,16 +2093,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6" t="s">
@@ -2099,29 +2111,29 @@
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="XFD12" s="10"/>
+      <c r="XFD12" s="11"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:16384">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="6" t="s">
@@ -2130,29 +2142,29 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7"/>
-      <c r="XFD13" s="10"/>
+      <c r="XFD13" s="11"/>
     </row>
     <row r="14" ht="14" spans="1:16384">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="6" t="s">
@@ -2161,29 +2173,29 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="XFD14" s="10"/>
+      <c r="XFD14" s="11"/>
     </row>
     <row r="15" ht="28" spans="1:16384">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="6" t="s">
@@ -2192,29 +2204,29 @@
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="XFD15" s="10"/>
+      <c r="XFD15" s="11"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:16384">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="6" t="s">
@@ -2223,29 +2235,29 @@
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="XFD16" s="10"/>
+      <c r="XFD16" s="11"/>
     </row>
     <row r="17" ht="14" spans="1:12">
       <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="s">
@@ -2254,10 +2266,10 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7"/>
     </row>
@@ -2266,16 +2278,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="6" t="s">
@@ -2284,10 +2296,10 @@
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -2296,16 +2308,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="6" t="s">
@@ -2314,10 +2326,10 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7"/>
     </row>
@@ -2326,16 +2338,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6" t="s">
@@ -2344,10 +2356,10 @@
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7"/>
     </row>
@@ -2356,16 +2368,16 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6" t="s">
@@ -2374,10 +2386,10 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L21" s="7"/>
     </row>
@@ -2386,16 +2398,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6" t="s">
@@ -2404,10 +2416,10 @@
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L22" s="7"/>
     </row>
@@ -2416,16 +2428,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="s">
@@ -2434,10 +2446,10 @@
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7"/>
     </row>
@@ -2446,16 +2458,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="s">
@@ -2464,10 +2476,10 @@
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L24" s="7"/>
     </row>
@@ -2476,16 +2488,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="6" t="s">
@@ -2494,10 +2506,10 @@
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L25" s="7"/>
     </row>
@@ -2506,16 +2518,16 @@
         <v>12</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="6" t="s">
@@ -2524,10 +2536,10 @@
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L26" s="7"/>
     </row>
@@ -2536,16 +2548,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="6" t="s">
@@ -2554,10 +2566,10 @@
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7"/>
     </row>
@@ -2566,16 +2578,16 @@
         <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="6" t="s">
@@ -2584,10 +2596,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L28" s="7"/>
     </row>
@@ -2596,16 +2608,16 @@
         <v>12</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="6" t="s">
@@ -2614,10 +2626,10 @@
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L29" s="7"/>
     </row>
@@ -2626,26 +2638,26 @@
         <v>12</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L30" s="7"/>
     </row>
@@ -2654,16 +2666,16 @@
         <v>12</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="s">
@@ -2672,10 +2684,10 @@
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7"/>
     </row>
@@ -2684,16 +2696,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="6" t="s">
@@ -2702,10 +2714,10 @@
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L32" s="7"/>
     </row>
@@ -2714,16 +2726,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="s">
@@ -2732,10 +2744,10 @@
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L33" s="7"/>
     </row>
@@ -2744,16 +2756,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="6" t="s">
@@ -2761,11 +2773,11 @@
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="9" t="s">
-        <v>109</v>
+      <c r="J34" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L34" s="7"/>
     </row>
@@ -2774,16 +2786,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="6" t="s">
@@ -2791,11 +2803,11 @@
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="9" t="s">
-        <v>112</v>
+      <c r="J35" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L35" s="7"/>
     </row>
@@ -2804,16 +2816,16 @@
         <v>12</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="6" t="s">
@@ -2821,11 +2833,11 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="9" t="s">
-        <v>114</v>
+      <c r="J36" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L36" s="7"/>
     </row>
@@ -2834,16 +2846,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="6" t="s">
@@ -2851,11 +2863,11 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="9" t="s">
-        <v>116</v>
+      <c r="J37" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L37" s="7"/>
     </row>
@@ -2864,16 +2876,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="s">
@@ -2881,11 +2893,11 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="9" t="s">
-        <v>118</v>
+      <c r="J38" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L38" s="7"/>
     </row>
@@ -2894,16 +2906,16 @@
         <v>12</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6" t="s">
@@ -2911,11 +2923,11 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="9" t="s">
-        <v>120</v>
+      <c r="J39" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L39" s="7"/>
     </row>
@@ -2924,16 +2936,16 @@
         <v>12</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
@@ -2941,11 +2953,11 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="9" t="s">
-        <v>122</v>
+      <c r="J40" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L40" s="7"/>
     </row>
@@ -2954,16 +2966,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
@@ -2971,11 +2983,11 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="9" t="s">
-        <v>124</v>
+      <c r="J41" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -2984,16 +2996,16 @@
         <v>12</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
@@ -3001,11 +3013,11 @@
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="9" t="s">
-        <v>126</v>
+      <c r="J42" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L42" s="7"/>
     </row>
@@ -3014,16 +3026,16 @@
         <v>12</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="6" t="s">
@@ -3031,11 +3043,11 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="9" t="s">
-        <v>128</v>
+      <c r="J43" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L43" s="7"/>
     </row>
@@ -3044,16 +3056,16 @@
         <v>12</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>26</v>
@@ -3063,11 +3075,11 @@
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="9" t="s">
-        <v>130</v>
+      <c r="J44" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L44" s="7"/>
     </row>
@@ -3076,16 +3088,16 @@
         <v>12</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>26</v>
@@ -3095,11 +3107,11 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="9" t="s">
-        <v>132</v>
+      <c r="J45" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L45" s="7"/>
     </row>
@@ -3108,16 +3120,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>26</v>
@@ -3127,11 +3139,11 @@
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="9" t="s">
-        <v>134</v>
+      <c r="J46" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L46" s="7"/>
     </row>
@@ -3140,16 +3152,16 @@
         <v>12</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>26</v>
@@ -3159,11 +3171,11 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="9" t="s">
-        <v>136</v>
+      <c r="J47" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L47" s="7"/>
     </row>
@@ -3172,16 +3184,16 @@
         <v>12</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>26</v>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="9" t="s">
-        <v>138</v>
+      <c r="J48" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L48" s="7"/>
     </row>
@@ -3204,16 +3216,16 @@
         <v>12</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="6" t="s">
@@ -3221,11 +3233,11 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="9" t="s">
-        <v>140</v>
+      <c r="J49" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L49" s="7"/>
     </row>
@@ -3234,16 +3246,16 @@
         <v>12</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>26</v>
@@ -3253,11 +3265,11 @@
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="9" t="s">
-        <v>142</v>
+      <c r="J50" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L50" s="7"/>
     </row>
@@ -3266,16 +3278,16 @@
         <v>12</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>26</v>
@@ -3285,11 +3297,11 @@
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="9" t="s">
-        <v>144</v>
+      <c r="J51" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L51" s="7"/>
     </row>
@@ -3298,16 +3310,16 @@
         <v>12</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="6" t="s">
@@ -3315,11 +3327,11 @@
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="9" t="s">
-        <v>146</v>
+      <c r="J52" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L52" s="7"/>
     </row>
@@ -3328,16 +3340,16 @@
         <v>12</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>26</v>
@@ -3347,11 +3359,11 @@
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="9" t="s">
-        <v>148</v>
+      <c r="J53" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L53" s="7"/>
     </row>
@@ -3360,16 +3372,16 @@
         <v>12</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>26</v>
@@ -3379,11 +3391,11 @@
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="9" t="s">
-        <v>150</v>
+      <c r="J54" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L54" s="7"/>
     </row>
@@ -3392,16 +3404,16 @@
         <v>12</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="6" t="s">
@@ -3409,11 +3421,11 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="9" t="s">
-        <v>152</v>
+      <c r="J55" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L55" s="7"/>
     </row>
@@ -3422,16 +3434,16 @@
         <v>12</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="6" t="s">
@@ -3439,11 +3451,11 @@
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="9" t="s">
-        <v>154</v>
+      <c r="J56" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L56" s="7"/>
     </row>
@@ -3452,16 +3464,16 @@
         <v>12</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="6" t="s">
@@ -3469,11 +3481,11 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="9" t="s">
-        <v>156</v>
+      <c r="J57" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L57" s="7"/>
     </row>
@@ -3482,16 +3494,16 @@
         <v>12</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="6" t="s">
@@ -3499,11 +3511,11 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="7"/>
-      <c r="J58" s="9" t="s">
-        <v>158</v>
+      <c r="J58" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L58" s="7"/>
     </row>
@@ -3512,16 +3524,16 @@
         <v>12</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="6" t="s">
@@ -3529,11 +3541,11 @@
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="9" t="s">
-        <v>160</v>
+      <c r="J59" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L59" s="7"/>
     </row>
@@ -3542,16 +3554,16 @@
         <v>12</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="6" t="s">
@@ -3559,11 +3571,11 @@
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="9" t="s">
-        <v>162</v>
+      <c r="J60" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L60" s="7"/>
     </row>
@@ -3572,16 +3584,16 @@
         <v>12</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="6" t="s">
@@ -3589,11 +3601,11 @@
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="9" t="s">
-        <v>164</v>
+      <c r="J61" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L61" s="7"/>
     </row>
@@ -3602,16 +3614,16 @@
         <v>12</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="6" t="s">
@@ -3619,11 +3631,11 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="9" t="s">
-        <v>166</v>
+      <c r="J62" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L62" s="7"/>
     </row>
@@ -3632,16 +3644,16 @@
         <v>12</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="6" t="s">
@@ -3649,11 +3661,11 @@
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="9" t="s">
-        <v>168</v>
+      <c r="J63" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L63" s="7"/>
     </row>
@@ -3662,16 +3674,16 @@
         <v>12</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="6" t="s">
@@ -3679,11 +3691,11 @@
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="7"/>
-      <c r="J64" s="9" t="s">
-        <v>170</v>
+      <c r="J64" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L64" s="7"/>
     </row>
@@ -3692,16 +3704,16 @@
         <v>12</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>26</v>
@@ -3711,11 +3723,11 @@
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="9" t="s">
-        <v>172</v>
+      <c r="J65" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L65" s="7"/>
     </row>
@@ -3724,16 +3736,16 @@
         <v>12</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>26</v>
@@ -3743,11 +3755,11 @@
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="9" t="s">
-        <v>174</v>
+      <c r="J66" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L66" s="7"/>
     </row>
@@ -3756,16 +3768,16 @@
         <v>12</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>26</v>
@@ -3775,11 +3787,11 @@
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="9" t="s">
-        <v>176</v>
+      <c r="J67" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L67" s="7"/>
     </row>
@@ -3788,16 +3800,16 @@
         <v>12</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>26</v>
@@ -3807,11 +3819,11 @@
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="9" t="s">
-        <v>178</v>
+      <c r="J68" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L68" s="7"/>
     </row>
@@ -3820,16 +3832,16 @@
         <v>12</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>26</v>
@@ -3839,11 +3851,11 @@
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="9" t="s">
-        <v>180</v>
+      <c r="J69" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L69" s="7"/>
     </row>
@@ -3852,16 +3864,16 @@
         <v>12</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="6" t="s">
@@ -3869,11 +3881,11 @@
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="9" t="s">
-        <v>182</v>
+      <c r="J70" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L70" s="7"/>
     </row>
@@ -3882,16 +3894,16 @@
         <v>12</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>26</v>
@@ -3901,11 +3913,11 @@
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="7"/>
-      <c r="J71" s="9" t="s">
-        <v>184</v>
+      <c r="J71" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L71" s="7"/>
     </row>
@@ -3914,16 +3926,16 @@
         <v>12</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>26</v>
@@ -3933,11 +3945,11 @@
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="9" t="s">
-        <v>186</v>
+      <c r="J72" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L72" s="7"/>
     </row>
@@ -3946,16 +3958,16 @@
         <v>12</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="6" t="s">
@@ -3963,11 +3975,11 @@
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="7"/>
-      <c r="J73" s="9" t="s">
-        <v>188</v>
+      <c r="J73" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L73" s="7"/>
     </row>
@@ -3976,16 +3988,16 @@
         <v>12</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="6" t="s">
@@ -3993,11 +4005,11 @@
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="9" t="s">
-        <v>190</v>
+      <c r="J74" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L74" s="7"/>
     </row>
@@ -4006,16 +4018,16 @@
         <v>12</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>26</v>
@@ -4025,11 +4037,11 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="7"/>
-      <c r="J75" s="9" t="s">
-        <v>192</v>
+      <c r="J75" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L75" s="7"/>
     </row>
@@ -4038,16 +4050,16 @@
         <v>12</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="6" t="s">
@@ -4055,11 +4067,11 @@
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="7"/>
-      <c r="J76" s="9" t="s">
-        <v>194</v>
+      <c r="J76" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L76" s="7"/>
     </row>
@@ -4068,16 +4080,16 @@
         <v>12</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="6" t="s">
@@ -4085,11 +4097,11 @@
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="7"/>
-      <c r="J77" s="9" t="s">
-        <v>196</v>
+      <c r="J77" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L77" s="7"/>
     </row>
@@ -4098,16 +4110,16 @@
         <v>12</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="6" t="s">
@@ -4115,11 +4127,11 @@
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="9" t="s">
-        <v>198</v>
+      <c r="J78" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L78" s="7"/>
     </row>
@@ -4128,16 +4140,16 @@
         <v>12</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>26</v>
@@ -4147,11 +4159,11 @@
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="9" t="s">
-        <v>200</v>
+      <c r="J79" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L79" s="7"/>
     </row>
@@ -4160,16 +4172,16 @@
         <v>12</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="6" t="s">
@@ -4177,11 +4189,11 @@
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="9" t="s">
-        <v>202</v>
+      <c r="J80" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L80" s="7"/>
     </row>
@@ -4190,16 +4202,16 @@
         <v>12</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="6" t="s">
@@ -4207,11 +4219,11 @@
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="7"/>
-      <c r="J81" s="9" t="s">
-        <v>204</v>
+      <c r="J81" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L81" s="7"/>
     </row>
@@ -4220,16 +4232,16 @@
         <v>12</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="6" t="s">
@@ -4237,11 +4249,11 @@
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="7"/>
-      <c r="J82" s="9" t="s">
-        <v>206</v>
+      <c r="J82" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L82" s="7"/>
     </row>
@@ -4250,16 +4262,16 @@
         <v>12</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>26</v>
@@ -4269,11 +4281,11 @@
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="9" t="s">
-        <v>208</v>
+      <c r="J83" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L83" s="7"/>
     </row>
@@ -4282,16 +4294,16 @@
         <v>12</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>26</v>
@@ -4301,11 +4313,11 @@
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="9" t="s">
-        <v>210</v>
+      <c r="J84" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L84" s="7"/>
     </row>
@@ -4314,16 +4326,16 @@
         <v>12</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="6" t="s">
@@ -4331,11 +4343,11 @@
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="7"/>
-      <c r="J85" s="9" t="s">
-        <v>212</v>
+      <c r="J85" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L85" s="7"/>
     </row>
@@ -4344,16 +4356,16 @@
         <v>12</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="6" t="s">
@@ -4361,11 +4373,11 @@
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="9" t="s">
-        <v>214</v>
+      <c r="J86" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L86" s="7"/>
     </row>
@@ -4374,16 +4386,16 @@
         <v>12</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="6" t="s">
@@ -4391,11 +4403,11 @@
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="9" t="s">
-        <v>216</v>
+      <c r="J87" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L87" s="7"/>
     </row>
@@ -4440,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -4452,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>9</v>

--- a/data/FDD接口测试用例.xlsx
+++ b/data/FDD接口测试用例.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17620"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="ddsf" sheetId="1" r:id="rId1"/>
-    <sheet name="多多新房" sheetId="2" r:id="rId2"/>
+    <sheet name="ddxf" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -689,10 +689,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -747,9 +747,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,7 +794,62 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -779,92 +864,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,7 +910,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,25 +988,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,13 +1012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,61 +1030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,25 +1054,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,19 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,34 +1122,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1170,17 +1157,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1191,6 +1167,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1210,147 +1201,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
@@ -1719,8 +1719,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
@@ -4433,7 +4433,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>

--- a/data/FDD接口测试用例.xlsx
+++ b/data/FDD接口测试用例.xlsx
@@ -218,7 +218,7 @@
     <t>经纪动态-默认列表</t>
   </si>
   <si>
-    <t>{"staffId":6520137,"customerStatus":0,"pageNo":1,"pageSize":10,"needCount":true}</t>
+    <t>dict</t>
   </si>
   <si>
     <t>经纪动态-客户状态-报备</t>
@@ -689,10 +689,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -741,45 +741,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,17 +755,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,8 +779,47 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,8 +833,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,22 +843,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,7 +857,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,13 +904,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,61 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +946,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,85 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,18 +1126,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,26 +1200,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,145 +1215,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
@@ -1719,8 +1719,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6"/>
